--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -246,23 +246,6 @@
     <t>content|内容</t>
   </si>
   <si>
-    <t>1.活动时间：2月9日8:00-2月15日23:59:59。
-2.活动期间，玩所有游戏都有几率获得福袋，福袋随机拆出“新年快乐”字符，积累字符可兑换奖励。在捕鱼高倍场或小游戏高档次中掉落更多福袋哦！
-3.活动期间，商城每日首充可获赠海量福袋。
-4.活动期间，3D捕鱼深海探险中每5层宝箱里可额外获得10个福袋。
-5.活动结束后，所有字符将统一清除，请及时进行奖励兑换。
-6.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取
-7.实物图片仅供参考，请以实际发出的奖励为准。</t>
-  </si>
-  <si>
-    <t>1.活动时间：2月9日8:00-2月15日23:59:59。
-2.活动期间，玩所有游戏都有几率获得福袋，福袋随机拆出“新年快乐”字符，积累字符可兑换奖励。在捕鱼高倍场或小游戏高档次中掉落更多福袋哦！
-3.活动期间，商城每日首充可获赠海量福袋。
-4.活动结束后，所有字符将统一清除，请及时进行奖励兑换。
-5.实物奖励请关注公众号《彩云新世界》联系在线客服领取
-6.实物图片仅供参考，请以实际发出的奖励为准。</t>
-  </si>
-  <si>
     <t>change_type|兑换id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -443,6 +426,25 @@
   </si>
   <si>
     <t>"prop_gdn_x","prop_gdn_k",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.活动时间：2月9日8:00-2月15日23:59:59。",
+"2.活动期间，玩所有游戏都有几率获得福袋，福袋随机拆出“新年快乐”字符，积累字符可兑换奖励。在捕鱼高倍场或小游戏高档次中掉落更多福袋哦！",
+"3.活动期间，商城每日首充可获赠海量福袋。",
+"4.活动期间，3D捕鱼深海探险中每5层宝箱里可额外获得10个福袋。",
+"5.活动结束后，所有字符将统一清除，请及时进行奖励兑换。",
+"6.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取",
+"7.实物图片仅供参考，请以实际发出的奖励为准。"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.活动时间：2月9日8:00-2月15日23:59:59。",
+"2.活动期间，玩所有游戏都有几率获得福袋，福袋随机拆出“新年快乐”字符，积累字符可兑换奖励。在捕鱼高倍场或小游戏高档次中掉落更多福袋哦！",
+"3.活动期间，商城每日首充可获赠海量福袋。",
+"4.活动结束后，所有字符将统一清除，请及时进行奖励兑换。",
+"5.实物奖励请关注公众号《彩云新世界》联系在线客服领取",
+"6.实物图片仅供参考，请以实际发出的奖励为准。",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -1039,10 +1041,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>17</v>
@@ -1060,10 +1062,10 @@
         <v>1613404799</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>19</v>
@@ -1086,10 +1088,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>17</v>
@@ -1107,10 +1109,10 @@
         <v>1613404799</v>
       </c>
       <c r="M3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>19</v>
@@ -1126,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1151,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>24</v>
@@ -1192,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>33</v>
@@ -1202,13 +1204,13 @@
         <v>34</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" s="21">
         <v>1</v>
@@ -1225,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>35</v>
@@ -1235,13 +1237,13 @@
         <v>34</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K3" s="21">
         <v>1</v>
@@ -1258,25 +1260,25 @@
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" s="21">
         <v>0</v>
@@ -1299,16 +1301,16 @@
         <v>37</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21">
@@ -1332,16 +1334,16 @@
         <v>39</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21">
@@ -1365,16 +1367,16 @@
         <v>41</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21">
@@ -1398,16 +1400,16 @@
         <v>43</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21">
@@ -1431,16 +1433,16 @@
         <v>45</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21">
@@ -1458,23 +1460,23 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" s="15">
         <v>1</v>
@@ -1491,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>35</v>
@@ -1501,13 +1503,13 @@
         <v>34</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K11" s="15">
         <v>1</v>
@@ -1524,25 +1526,25 @@
         <v>3</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" s="15">
         <v>0</v>
@@ -1565,16 +1567,16 @@
         <v>37</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15">
@@ -1598,16 +1600,16 @@
         <v>48</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15">
@@ -1631,16 +1633,16 @@
         <v>50</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15">
@@ -1664,16 +1666,16 @@
         <v>43</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15">
@@ -1697,16 +1699,16 @@
         <v>52</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15">
@@ -1918,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1957,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1980,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2502,36 +2504,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -2542,6 +2514,36 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
@@ -2549,13 +2551,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2567,13 +2569,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
   <si>
     <t>line|</t>
   </si>
@@ -312,14 +312,6 @@
   </si>
   <si>
     <t>"prop_gdn_x","prop_gdn_n","prop_gdn_k","prop_gdn_l",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_l",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_gdn_x","prop_gdn_k",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -370,6 +362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -439,6 +432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,6 +497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -555,6 +550,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -607,6 +603,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -642,6 +639,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +675,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -712,6 +711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -747,6 +747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -782,6 +783,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -817,6 +819,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -852,6 +855,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -887,6 +891,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -922,6 +927,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -957,6 +963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -992,6 +999,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1039,14 +1047,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>800,800,800,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>600,600,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3800,3800,3800,3800,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1067,18 +1067,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>800,800,800,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>600,600,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>34,35,36,37,38,39,40,41,</t>
   </si>
   <si>
     <t>42,43,44,45,46,47,48,49,</t>
+  </si>
+  <si>
+    <t>800,800,0,800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,0,0,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800,0,800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,0,0,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1588,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1698,7 +1706,7 @@
         <v>54</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>19</v>
@@ -1745,7 +1753,7 @@
         <v>54</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>19</v>
@@ -1761,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1827,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>33</v>
@@ -1840,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>55</v>
@@ -1854,16 +1862,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="21">
         <v>2</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
@@ -1873,7 +1881,7 @@
         <v>77</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>56</v>
@@ -1887,16 +1895,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="21">
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>60</v>
@@ -1908,7 +1916,7 @@
         <v>77</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>66</v>
@@ -1922,16 +1930,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="21">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="21">
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>61</v>
@@ -1943,7 +1951,7 @@
         <v>79</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21">
@@ -1955,16 +1963,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="21">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="21">
         <v>5</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>62</v>
@@ -1976,7 +1984,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21">
@@ -1988,16 +1996,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="21">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="21">
         <v>6</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>62</v>
@@ -2009,7 +2017,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21">
@@ -2021,16 +2029,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="21">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="21">
         <v>7</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>63</v>
@@ -2039,10 +2047,10 @@
         <v>71</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21">
@@ -2054,16 +2062,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="21">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" s="21">
         <v>8</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>62</v>
@@ -2072,10 +2080,10 @@
         <v>72</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21">
@@ -2087,16 +2095,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="15">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" s="15">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="31" t="s">
@@ -2106,7 +2114,7 @@
         <v>77</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>57</v>
@@ -2120,16 +2128,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="15">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" s="15">
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="14" t="s">
@@ -2139,7 +2147,7 @@
         <v>79</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>58</v>
@@ -2153,16 +2161,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="15">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C12" s="15">
         <v>3</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>59</v>
@@ -2174,7 +2182,7 @@
         <v>79</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J12" s="29" t="s">
         <v>66</v>
@@ -2188,16 +2196,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="15">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C13" s="15">
         <v>4</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>64</v>
@@ -2209,7 +2217,7 @@
         <v>79</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15">
@@ -2221,16 +2229,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="15">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C14" s="15">
         <v>5</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>65</v>
@@ -2242,7 +2250,7 @@
         <v>79</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15">
@@ -2254,16 +2262,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="15">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C15" s="15">
         <v>6</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>65</v>
@@ -2275,7 +2283,7 @@
         <v>79</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15">
@@ -2287,16 +2295,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="15">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>63</v>
@@ -2305,7 +2313,7 @@
         <v>74</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>125</v>
@@ -2320,16 +2328,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C17" s="15">
         <v>8</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>65</v>
@@ -2338,7 +2346,7 @@
         <v>76</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>126</v>
@@ -2592,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2615,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3126,13 +3134,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3146,25 +3166,13 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3178,13 +3186,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3196,13 +3204,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -1594,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1606,19 +1606,19 @@
     <col min="2" max="2" width="16.875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="24" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="56" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" style="5" customWidth="1"/>
-    <col min="8" max="8" width="42" style="5" customWidth="1"/>
-    <col min="9" max="10" width="25.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.25" style="5" customWidth="1"/>
-    <col min="14" max="14" width="45" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="5" max="6" width="24.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="56" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="5" customWidth="1"/>
+    <col min="9" max="9" width="42" style="5" customWidth="1"/>
+    <col min="10" max="11" width="25.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="25.25" style="5" customWidth="1"/>
+    <col min="15" max="15" width="45" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1635,37 +1635,40 @@
         <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1681,38 +1684,41 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="5">
+        <v>34</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="9">
+      <c r="L2" s="9">
         <v>1612828800</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M2" s="9">
         <v>1613404799</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1728,34 +1734,37 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="5">
+        <v>35</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>2</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>1612828800</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>1613404799</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1767,592 +1776,540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="9" customWidth="1"/>
-    <col min="7" max="7" width="36.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="7.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="9" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>49</v>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="21">
+      <c r="G2" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="21">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="21">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="21">
+      <c r="J3" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="21">
-        <v>34</v>
-      </c>
-      <c r="C4" s="21">
         <v>3</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="D4" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="E4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="21">
+      <c r="J4" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="21">
-        <v>34</v>
-      </c>
-      <c r="C5" s="21">
         <v>4</v>
       </c>
+      <c r="C5" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="D5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="26" t="s">
         <v>98</v>
       </c>
+      <c r="E5" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="21">
-        <v>34</v>
-      </c>
-      <c r="C6" s="21">
         <v>5</v>
       </c>
+      <c r="C6" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="H6" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="21">
-        <v>34</v>
-      </c>
-      <c r="C7" s="21">
         <v>6</v>
       </c>
+      <c r="C7" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="H7" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="21">
-        <v>34</v>
-      </c>
-      <c r="C8" s="21">
         <v>7</v>
       </c>
+      <c r="C8" s="26" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="26" t="s">
         <v>101</v>
       </c>
+      <c r="E8" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="H8" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="21">
-        <v>34</v>
-      </c>
-      <c r="C9" s="21">
         <v>8</v>
       </c>
+      <c r="C9" s="26" t="s">
+        <v>89</v>
+      </c>
       <c r="D9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="G9" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="15">
-        <v>35</v>
-      </c>
-      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="31" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="15">
+      <c r="J10" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="15">
-        <v>35</v>
-      </c>
-      <c r="C11" s="15">
         <v>2</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="14" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="H11" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="15">
+      <c r="J11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="15">
-        <v>35</v>
-      </c>
-      <c r="C12" s="15">
         <v>3</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="29" t="s">
         <v>92</v>
       </c>
+      <c r="D12" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="E12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="H12" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="I12" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="15">
+      <c r="J12" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="15">
-        <v>35</v>
-      </c>
-      <c r="C13" s="15">
         <v>4</v>
       </c>
+      <c r="C13" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="D13" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="31" t="s">
         <v>98</v>
       </c>
+      <c r="E13" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="F13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="15">
-        <v>35</v>
-      </c>
-      <c r="C14" s="15">
         <v>5</v>
       </c>
+      <c r="C14" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="D14" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="31" t="s">
         <v>105</v>
       </c>
+      <c r="E14" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="F14" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="H14" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="15">
-        <v>35</v>
-      </c>
-      <c r="C15" s="15">
         <v>6</v>
       </c>
+      <c r="C15" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="D15" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="H15" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="15">
-        <v>35</v>
-      </c>
-      <c r="C16" s="15">
         <v>7</v>
       </c>
+      <c r="C16" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="D16" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="31" t="s">
         <v>107</v>
       </c>
+      <c r="E16" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="H16" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="15">
-        <v>35</v>
-      </c>
-      <c r="C17" s="15">
         <v>8</v>
       </c>
+      <c r="C17" s="31" t="s">
+        <v>96</v>
+      </c>
       <c r="D17" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="F17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="G17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="H17" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
         <v>0</v>
       </c>
     </row>
@@ -3134,25 +3091,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3166,13 +3111,25 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3186,13 +3143,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3204,13 +3161,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -1035,10 +1035,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>60000,6000,6000,6000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3000,3000,3000,3000,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1086,6 +1082,10 @@
   </si>
   <si>
     <t>600,600,0,0,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1712,7 +1712,7 @@
         <v>54</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>19</v>
@@ -1762,7 +1762,7 @@
         <v>54</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>19</v>
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,7 +1944,7 @@
         <v>79</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21">
@@ -1974,7 +1974,7 @@
         <v>77</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21">
@@ -2004,7 +2004,7 @@
         <v>77</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21">
@@ -2034,7 +2034,7 @@
         <v>52</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21">
@@ -2064,7 +2064,7 @@
         <v>52</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21">
@@ -2092,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>57</v>
@@ -2122,7 +2122,7 @@
         <v>79</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>58</v>
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>66</v>
@@ -2186,7 +2186,7 @@
         <v>79</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15">
@@ -2216,7 +2216,7 @@
         <v>79</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15">
@@ -2246,7 +2246,7 @@
         <v>79</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15">
@@ -2276,7 +2276,7 @@
         <v>52</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15">
@@ -2306,7 +2306,7 @@
         <v>52</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15">
@@ -3091,26 +3091,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -3121,59 +3122,58 @@
 </pixelators>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
   <si>
     <t>line|</t>
   </si>
@@ -1063,12 +1063,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>34,35,36,37,38,39,40,41,</t>
-  </si>
-  <si>
-    <t>42,43,44,45,46,47,48,49,</t>
-  </si>
-  <si>
     <t>800,800,0,800,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1086,6 +1080,10 @@
   </si>
   <si>
     <t>6000,6000,6000,6000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>73,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1596,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1712,7 +1710,7 @@
         <v>54</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>19</v>
@@ -1762,7 +1760,7 @@
         <v>54</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>19</v>
@@ -1778,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,7 +1942,7 @@
         <v>79</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21">
@@ -2034,7 +2032,7 @@
         <v>52</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21">
@@ -2064,7 +2062,7 @@
         <v>52</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21">
@@ -2186,7 +2184,7 @@
         <v>79</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15">
@@ -2276,7 +2274,7 @@
         <v>52</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15">
@@ -2306,7 +2304,7 @@
         <v>52</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15">
@@ -3091,6 +3089,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -3100,7 +3108,7 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3111,7 +3119,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -3122,7 +3130,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -3132,48 +3140,38 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2356,8 +2356,8 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>1000226</v>
+      <c r="B2" s="11">
+        <v>1000267</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>39</v>
@@ -2370,8 +2370,8 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>1000227</v>
+      <c r="B3" s="11">
+        <v>1000268</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>40</v>
@@ -2384,8 +2384,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>1000228</v>
+      <c r="B4" s="11">
+        <v>1000269</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>41</v>
@@ -2398,8 +2398,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1000229</v>
+      <c r="B5" s="11">
+        <v>1000270</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>42</v>
@@ -2412,8 +2412,8 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>1000230</v>
+      <c r="B6" s="11">
+        <v>1000271</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>43</v>
@@ -2426,8 +2426,8 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>1000231</v>
+      <c r="B7" s="11">
+        <v>1000272</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>44</v>
@@ -2440,8 +2440,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
-        <v>1000232</v>
+      <c r="B8" s="11">
+        <v>1000273</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>45</v>
@@ -2454,8 +2454,8 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <v>1000233</v>
+      <c r="B9" s="11">
+        <v>1000274</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>46</v>
@@ -3089,16 +3089,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -3108,7 +3098,7 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3119,7 +3109,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -3130,7 +3120,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -3140,38 +3130,48 @@
 </settings>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>line|</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>cpl_cjj</t>
-  </si>
-  <si>
-    <t>9,10,11,12,13,14,15,16</t>
   </si>
   <si>
     <t>"game_MiniGame",</t>
@@ -1084,6 +1081,10 @@
   </si>
   <si>
     <t>73,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1595,7 +1596,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1633,13 +1634,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>5</v>
@@ -1686,10 +1687,10 @@
         <v>34</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>17</v>
@@ -1707,10 +1708,10 @@
         <v>1613404799</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>19</v>
@@ -1727,7 +1728,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -1736,16 +1737,16 @@
         <v>35</v>
       </c>
       <c r="G3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="5">
         <v>2</v>
@@ -1757,10 +1758,10 @@
         <v>1613404799</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>19</v>
@@ -1774,30 +1775,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="9" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="29.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="9" customWidth="1"/>
+    <col min="5" max="5" width="36.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -1823,491 +1823,440 @@
       <c r="I1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
-        <v>2</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="21">
+      <c r="B3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>84</v>
+      <c r="B4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="21">
+      <c r="F4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
-        <v>4</v>
+      <c r="B5" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21">
+        <v>67</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="21">
-        <v>5</v>
+      <c r="B6" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21">
+        <v>98</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
-        <v>6</v>
+      <c r="B7" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21">
+        <v>99</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="21">
-        <v>7</v>
+      <c r="B8" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21">
+        <v>70</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="21">
-        <v>8</v>
+      <c r="B9" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+        <v>101</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="B11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>3</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>92</v>
+      <c r="B12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="15">
+        <v>58</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
-        <v>4</v>
+      <c r="B13" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15">
+        <v>73</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
-        <v>5</v>
+      <c r="B14" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15">
+        <v>73</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
-        <v>6</v>
+      <c r="B15" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15">
+        <v>105</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
-        <v>7</v>
+      <c r="B16" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15">
+        <v>73</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
-        <v>8</v>
+      <c r="B17" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15">
+        <v>107</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2323,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2337,19 +2286,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2360,7 +2309,7 @@
         <v>1000267</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5">
         <v>45</v>
@@ -2374,7 +2323,7 @@
         <v>1000268</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5">
         <v>90</v>
@@ -2388,7 +2337,7 @@
         <v>1000269</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5">
         <v>150</v>
@@ -2402,7 +2351,7 @@
         <v>1000270</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5">
         <v>290</v>
@@ -2416,7 +2365,7 @@
         <v>1000271</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5">
         <v>590</v>
@@ -2430,7 +2379,7 @@
         <v>1000272</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5">
         <v>1490</v>
@@ -2444,7 +2393,7 @@
         <v>1000273</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5">
         <v>2990</v>
@@ -2458,7 +2407,7 @@
         <v>1000274</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5">
         <v>7490</v>
@@ -2529,10 +2478,10 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2555,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2578,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3089,16 +3038,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3109,69 +3069,58 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
   <si>
     <t>line|</t>
   </si>
@@ -127,60 +127,6 @@
   </si>
   <si>
     <t>"",</t>
-  </si>
-  <si>
-    <t>swjl_2</t>
-  </si>
-  <si>
-    <t>2000万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
-  </si>
-  <si>
-    <t>高级核弹</t>
-  </si>
-  <si>
-    <t>icon_gjhd</t>
-  </si>
-  <si>
-    <t>中级核弹</t>
-  </si>
-  <si>
-    <t>icon_zjhd</t>
-  </si>
-  <si>
-    <t>200万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-  </si>
-  <si>
-    <t>icon_cjhd</t>
-  </si>
-  <si>
-    <t>swjl_1</t>
-  </si>
-  <si>
-    <t>1000万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
-  </si>
-  <si>
-    <t>小金锤</t>
-  </si>
-  <si>
-    <t>icon_jc</t>
-  </si>
-  <si>
-    <t>小银锤</t>
-  </si>
-  <si>
-    <t>icon_yc</t>
   </si>
   <si>
     <t xml:space="preserve">task_id |任务ID </t>
@@ -445,6 +391,675 @@
 "4.活动结束后，所有字符将统一清除，请及时进行奖励兑换。",
 "5.实物奖励请关注公众号《彩云新世界》联系在线客服领取",
 "6.实物图片仅供参考，请以实际发出的奖励为准。",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼油4L",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼大米10斤",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20元话费",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000万金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"高级核弹"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"中级核弹"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200万金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"初级核弹"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼油4L",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼大米10斤",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20元话费",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000万金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"小金锤"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200万金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"小银锤"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swjl_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay_icon_gold9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_gjhd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_zjhd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay_icon_gold7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_cjhd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swjl_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swjl_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay_icon_gold8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_jc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay_icon_gold7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_yc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -956,7 +1571,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -994,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -1041,10 +1656,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>17</v>
@@ -1062,10 +1677,10 @@
         <v>1613404799</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>19</v>
@@ -1088,10 +1703,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>17</v>
@@ -1109,10 +1724,10 @@
         <v>1613404799</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>19</v>
@@ -1128,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1153,7 +1768,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>24</v>
@@ -1194,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>33</v>
@@ -1204,13 +1819,13 @@
         <v>34</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K2" s="21">
         <v>1</v>
@@ -1227,23 +1842,23 @@
         <v>2</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>35</v>
+        <v>98</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K3" s="21">
         <v>1</v>
@@ -1260,25 +1875,23 @@
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>79</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E4" s="25"/>
       <c r="F4" s="25" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K4" s="21">
         <v>0</v>
@@ -1294,23 +1907,23 @@
       <c r="C5" s="21">
         <v>4</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>37</v>
+      <c r="D5" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21">
@@ -1327,23 +1940,23 @@
       <c r="C6" s="21">
         <v>5</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>39</v>
+      <c r="D6" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21">
@@ -1360,23 +1973,23 @@
       <c r="C7" s="21">
         <v>6</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>41</v>
+      <c r="D7" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>108</v>
-      </c>
       <c r="I7" s="26" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21">
@@ -1393,23 +2006,23 @@
       <c r="C8" s="21">
         <v>7</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>43</v>
+      <c r="D8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21">
@@ -1426,23 +2039,23 @@
       <c r="C9" s="21">
         <v>8</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>45</v>
+      <c r="D9" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21">
@@ -1460,23 +2073,23 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>46</v>
+        <v>105</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="31" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="K10" s="15">
         <v>1</v>
@@ -1493,23 +2106,23 @@
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>35</v>
+        <v>106</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>119</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K11" s="15">
         <v>1</v>
@@ -1526,25 +2139,23 @@
         <v>3</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>79</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E12" s="28"/>
       <c r="F12" s="28" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K12" s="15">
         <v>0</v>
@@ -1560,23 +2171,23 @@
       <c r="C13" s="15">
         <v>4</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
+      <c r="D13" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15">
@@ -1593,23 +2204,23 @@
       <c r="C14" s="15">
         <v>5</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>48</v>
+      <c r="D14" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15">
@@ -1626,23 +2237,23 @@
       <c r="C15" s="15">
         <v>6</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>50</v>
+      <c r="D15" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15">
@@ -1659,23 +2270,23 @@
       <c r="C16" s="15">
         <v>7</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>43</v>
+      <c r="D16" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>122</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15">
@@ -1692,23 +2303,23 @@
       <c r="C17" s="15">
         <v>8</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>52</v>
+      <c r="D17" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15">
@@ -1719,7 +2330,7 @@
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1744,16 +2355,16 @@
         <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1764,7 +2375,7 @@
         <v>1000226</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5">
         <v>45</v>
@@ -1778,7 +2389,7 @@
         <v>1000227</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5">
         <v>90</v>
@@ -1792,7 +2403,7 @@
         <v>1000228</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5">
         <v>150</v>
@@ -1806,7 +2417,7 @@
         <v>1000229</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5">
         <v>290</v>
@@ -1820,7 +2431,7 @@
         <v>1000230</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5">
         <v>590</v>
@@ -1834,7 +2445,7 @@
         <v>1000231</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5">
         <v>1490</v>
@@ -1848,7 +2459,7 @@
         <v>1000232</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5">
         <v>2990</v>
@@ -1862,7 +2473,7 @@
         <v>1000233</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5">
         <v>7490</v>
@@ -1920,7 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1933,10 +2544,10 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1959,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1982,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2504,6 +3115,36 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -2514,36 +3155,6 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
@@ -2551,13 +3162,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2569,13 +3180,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
   <si>
     <t>line|</t>
   </si>
@@ -215,14 +215,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"34","35","36","37","38","39","40","41,"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"42","43","44","45","46","47","48","49,"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>金龙鱼油4L</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -308,50 +300,6 @@
   </si>
   <si>
     <t>"prop_hammer_3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2400,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2400,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1061,6 +1009,76 @@
       <t>",</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_hf20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800,3800,3800,3800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,2000,2000,2000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250,1250,1250,1250,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,6000,6000,6000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000,3000,3000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1500,1500,1500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800,800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800,3800,3800,3800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,2000,2000,2000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250,1250,1250,1250,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000,3000,3000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1500,1500,1500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800,800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,35,36,37,38,39,40,41,</t>
+  </si>
+  <si>
+    <t>42,43,44,45,46,47,48,49,</t>
   </si>
 </sst>
 </file>
@@ -1570,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1680,7 +1698,7 @@
         <v>54</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>19</v>
@@ -1727,7 +1745,7 @@
         <v>54</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>19</v>
@@ -1743,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1753,7 +1771,7 @@
     <col min="2" max="2" width="20.25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="11" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="9" customWidth="1"/>
     <col min="7" max="7" width="36.125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.25" style="9" bestFit="1" customWidth="1"/>
@@ -1809,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>33</v>
@@ -1819,13 +1837,13 @@
         <v>34</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K2" s="21">
         <v>1</v>
@@ -1842,23 +1860,23 @@
         <v>2</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" s="21">
         <v>1</v>
@@ -1875,23 +1893,25 @@
         <v>3</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="F4" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4" s="21">
         <v>0</v>
@@ -1908,22 +1928,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>113</v>
-      </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21">
@@ -1941,22 +1961,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>114</v>
-      </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21">
@@ -1974,22 +1994,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>115</v>
-      </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21">
@@ -2007,22 +2027,22 @@
         <v>7</v>
       </c>
       <c r="D8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>116</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21">
@@ -2040,22 +2060,22 @@
         <v>8</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>117</v>
-      </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21">
@@ -2073,23 +2093,23 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>105</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>118</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="31" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K10" s="15">
         <v>1</v>
@@ -2106,23 +2126,23 @@
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>119</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11" s="15">
         <v>1</v>
@@ -2139,23 +2159,25 @@
         <v>3</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="28"/>
+        <v>94</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>111</v>
+      </c>
       <c r="F12" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K12" s="15">
         <v>0</v>
@@ -2172,22 +2194,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>113</v>
-      </c>
       <c r="F13" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15">
@@ -2205,22 +2227,22 @@
         <v>5</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15">
@@ -2238,22 +2260,22 @@
         <v>6</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15">
@@ -2271,22 +2293,22 @@
         <v>7</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15">
@@ -2304,22 +2326,22 @@
         <v>8</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15">
@@ -2570,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2593,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3104,6 +3126,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -3114,37 +3156,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3155,38 +3167,48 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/act_ty_universal_dh_config.xlsx
+++ b/config_2.9/act_ty_universal_dh_config.xlsx
@@ -380,7 +380,7 @@
   </si>
   <si>
     <r>
-      <t>"高级核弹"</t>
+      <t>"中级核弹"</t>
     </r>
     <r>
       <rPr>
@@ -397,23 +397,6 @@
   </si>
   <si>
     <r>
-      <t>"中级核弹"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -449,23 +432,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"初级核弹"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"金龙鱼油4L",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -515,23 +481,6 @@
   </si>
   <si>
     <r>
-      <t>"小金锤"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -568,23 +517,6 @@
   </si>
   <si>
     <r>
-      <t>"小银锤"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1085,6 +1017,22 @@
   </si>
   <si>
     <t>9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小金锤*5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小银锤*10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"高级核弹*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"初级核弹*1",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1711,7 +1659,7 @@
         <v>53</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>19</v>
@@ -1728,7 +1676,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -1761,7 +1709,7 @@
         <v>53</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>19</v>
@@ -1778,7 +1726,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1842,7 +1790,7 @@
         <v>76</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>54</v>
@@ -1859,7 +1807,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="24" t="s">
@@ -1869,7 +1817,7 @@
         <v>76</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>55</v>
@@ -1886,7 +1834,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>59</v>
@@ -1898,7 +1846,7 @@
         <v>76</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>65</v>
@@ -1915,7 +1863,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>60</v>
@@ -1927,7 +1875,7 @@
         <v>78</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21">
@@ -1939,10 +1887,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>61</v>
@@ -1954,7 +1902,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21">
@@ -1966,10 +1914,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>61</v>
@@ -1981,7 +1929,7 @@
         <v>76</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21">
@@ -1993,10 +1941,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>62</v>
@@ -2008,7 +1956,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21">
@@ -2020,10 +1968,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>61</v>
@@ -2035,7 +1983,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21">
@@ -2047,10 +1995,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="31" t="s">
@@ -2060,7 +2008,7 @@
         <v>76</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>56</v>
@@ -2074,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="14" t="s">
@@ -2087,7 +2035,7 @@
         <v>78</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>57</v>
@@ -2101,10 +2049,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>58</v>
@@ -2116,7 +2064,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>65</v>
@@ -2133,7 +2081,7 @@
         <v>84</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>63</v>
@@ -2145,7 +2093,7 @@
         <v>78</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15">
@@ -2157,10 +2105,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>64</v>
@@ -2172,7 +2120,7 @@
         <v>78</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15">
@@ -2184,10 +2132,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>64</v>
@@ -2199,7 +2147,7 @@
         <v>78</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15">
@@ -2211,10 +2159,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>62</v>
@@ -2226,7 +2174,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15">
@@ -2238,10 +2186,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>64</v>
@@ -2253,7 +2201,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15">
@@ -3038,16 +2986,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -3058,7 +2996,37 @@
 </pixelators>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3069,58 +3037,38 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>